--- a/meta/3-1-1.xlsx
+++ b/meta/3-1-1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\гвц\Desktop\Миссия Мархонько\Метаданные для заполнения\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\open-sdg-data-starter-develop\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B33EF51-5900-4BE2-A9B0-D563C2300B1B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.1.1." sheetId="1" r:id="rId1"/>
@@ -169,7 +170,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -340,8 +341,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -618,26 +619,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="61.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="42.578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="61.15625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="1:2" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="87" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>44</v>
       </c>
@@ -645,7 +646,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6" t="s">
         <v>42</v>
       </c>
@@ -653,7 +654,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="42.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
@@ -661,13 +662,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="11"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6" t="s">
         <v>37</v>
       </c>
@@ -675,7 +676,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
@@ -683,7 +684,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6" t="s">
         <v>33</v>
       </c>
@@ -691,7 +692,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6" t="s">
         <v>31</v>
       </c>
@@ -699,7 +700,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -707,13 +708,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="11"/>
     </row>
-    <row r="12" spans="1:2" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="120" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
@@ -721,7 +722,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="169.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
@@ -729,7 +730,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="208.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="208.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6" t="s">
         <v>22</v>
       </c>
@@ -737,13 +738,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="11"/>
     </row>
-    <row r="16" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
@@ -751,7 +752,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="129.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="129.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
@@ -759,13 +760,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="98.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -773,7 +774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="283.89999999999998" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="283.89999999999998" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="6" t="s">
         <v>12</v>
       </c>
@@ -781,7 +782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="6" t="s">
         <v>10</v>
       </c>
@@ -789,13 +790,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="1:2" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="132" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="6" t="s">
         <v>7</v>
       </c>
@@ -803,7 +804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
@@ -811,37 +812,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="197.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="10"/>
-    </row>
-    <row r="26" spans="1:2" ht="237" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="9" t="s">
+      <c r="B25" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+    <row r="26" spans="1:2" ht="144" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="7"/>
-    </row>
-    <row r="28" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F65" s="4"/>
-      <c r="K65" s="3"/>
+    <row r="63" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="F63" s="4"/>
+      <c r="K63" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/meta/3-1-1.xlsx
+++ b/meta/3-1-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28665" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист" sheetId="2" r:id="rId1"/>
@@ -112,12 +112,6 @@
     <t xml:space="preserve">Jmaatkulova@stat.kg </t>
   </si>
   <si>
-    <t>+996 (0312) 32 46 36</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
-  </si>
-  <si>
     <t>По определению ВОЗ, под материнской смертностью понимается смерть женщины, обусловленная беременностью (независимо от ее продолжительности и локализации) и наступившая в период беременности или в течение 42 дней после ее окончания от какой-либо причины, связанной с беременностью, отягощенной ею либо ее ведением, но не от несчастного случая или случайно возникшей причины.</t>
   </si>
   <si>
@@ -155,18 +149,40 @@
     <t>Ссылки на НПА и методологию: 
 http://www.stat.kg/ru/about/pravovye-osnovy-organov-gosudarstvennoj-statistiki/; https://unstats.un.org/sdgs/Metadata; http://www.stat.kg/ru/statistics/download/methodology/68/. Статистические публикации НСК: ежемесячный доклад «Социально-экономическое положение КР», статистические сборники «Демографический ежегодник КР», «Социальные тенденции КР», «Женщины и мужчины КР», "Уровень жизни населения КР», «Здоровье населения и здравоохранение в КР» на официальном сайте НСК КР: http://www.stat.kg/ru/publications/
 Национальная платформа отчётности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
+  </si>
+  <si>
+    <t>0 (312) 32 55 46</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,26 +249,34 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -563,7 +587,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,16 +661,16 @@
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>32</v>
+      <c r="B9" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>33</v>
+      <c r="B10" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -660,7 +684,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -668,7 +692,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="183" customHeight="1" x14ac:dyDescent="0.25">
@@ -676,7 +700,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -690,7 +714,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -698,7 +722,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -712,7 +736,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -720,7 +744,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -728,7 +752,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -742,7 +766,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -750,7 +774,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -758,7 +782,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -766,7 +790,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/meta/3-1-1.xlsx
+++ b/meta/3-1-1.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28665" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -94,67 +94,64 @@
     <t>8. Ссылки и документация</t>
   </si>
   <si>
-    <t>3: Обеспечение здорового образа жизни и содействие благополучию для всех в любом возрасте</t>
-  </si>
-  <si>
-    <t>3.1: К 2030 году сократить значение глобального коэффициента материнской смертности до уровня менее 70 на 100 000 рождённых живых детей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1.1: Коэффициент материнской смертности </t>
-  </si>
-  <si>
-    <t>Национальный статистический комитет КР (Отдел демографической статистики)</t>
-  </si>
-  <si>
-    <t>Мааткулова Ж.Б.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jmaatkulova@stat.kg </t>
-  </si>
-  <si>
-    <t>По определению ВОЗ, под материнской смертностью понимается смерть женщины, обусловленная беременностью (независимо от ее продолжительности и локализации) и наступившая в период беременности или в течение 42 дней после ее окончания от какой-либо причины, связанной с беременностью, отягощенной ею либо ее ведением, но не от несчастного случая или случайно возникшей причины.</t>
+    <t>Цель 3: Обеспечение здорового образа жизни и содействие благополучию для всех в любом возрасте</t>
+  </si>
+  <si>
+    <t>3.1 К 2030 году сократить значение глобального коэффициента материнской смертности до уровня 22 на 100 000 рождённых живыми детей.</t>
+  </si>
+  <si>
+    <t>3.1.1: Коэффициент материнской смертности</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> МЗ КР</t>
+  </si>
+  <si>
+    <t>Асылбешева Раиса Бейшеналиевна</t>
+  </si>
+  <si>
+    <t>r_asylbasheva@mz.med.kg</t>
+  </si>
+  <si>
+    <t>(0709) 331147</t>
+  </si>
+  <si>
+    <t>www.med.kg</t>
+  </si>
+  <si>
+    <t>По определению ВОЗ, под материнской смертностью понимается смерть женщины, обусловленная беременностью (независимо от ее продолжительности и локализации) и наступившая в период родов или в течение 42 дней после ее окончания от какой-либо причины, связанной с беременностью, отягощенной ею либо ее ведением, но не от несчастного случая или случайно возникшей причины.</t>
   </si>
   <si>
     <t>Смертность населения - процесс вымирания поколения, один из двух главных подпроцессов воспроизводства населения. Причины смерти - это болезни, патологические состояния или травмы, которые привели к смерти или способствовали ее наступлению, а также обстоятельства несчастного случая или акта насилия, которые вызвали травму со смертельным исходом. Кодирование причин смерти производится с 2000г. на основании Международной статистической классификации болезней и причин смерти 10-го пересмотра (МКБ-10) Всемирной организации здравоохранения.</t>
   </si>
   <si>
-    <t>Анализ показателя позволяет оценить уровень эффективности государственной политики в области охраны материнства и детства в республике, поскольку уровень медицинской помощи беременным и родильницам определяет судьбу и здоровье будущих поколений. Показатели материнской смертности в Кыргызстане, несмотря на некоторое снижение, остаются высокими. Смерть женщины в любом периоде беременности или в течение 42 дней после ее окончания относится к материнской смертности. Поэтому, если умершая была беременна (независимо от продолжительности и локализации беременности) или умерла в течение 42 дней после родов, в медицинском свидетельстве о смерти обязательно должна быть сделана запись о сроке беременности или числе дней послеродового периода, даже если беременность не была связана с основной причиной смерти.</t>
-  </si>
-  <si>
-    <t>Источником информации о причинах смерти являются записи в медицинских свидетельствах о смерти, составляемых врачом или средним медицинским персоналом относительно заболевания, несчастного случая, убийства, самоубийства и другого внешнего воздействия, послуживших причиной смерти. Эти документы вместе с Записями актов гражданского состояния о смерти, составляемыми в органах ЗАГС (находятся в подчинении Государственной регистрационной службы при Правительстве КР), направляются для разработки в органы статистики. Из указанных в них заболеваний для статистических целей выбирается одно – основное (начальное), т.е. болезнь или травма, вызвавшая события, прямо приведшие к смерти.</t>
-  </si>
-  <si>
-    <t>Сбор данных проводится на основании представленных записей актов гражданского состояния о смерти и приложенных медицинских свидетельств о смерти, представляемых органами ЗАГС (ГРС при ПКР) на регулярной основе (ежемесячно). 
-Первичная обработка и получение сводных данных осуществляется на уровне областных органов государственной статистики. Свод данных по республике осуществляется НСК. Период между сбором данных и их представлением составляет 38 дней.</t>
-  </si>
-  <si>
-    <t>Коэффициент материнской смертности (КМС) определяется как число материнских смертей за исследуемый период времени на 100 000 рожденных живыми детей за тот же период времени.                                                Коэффициент материнской смертности можно рассчитать путем деления зарегистрированной (или оценочной) материнской смертности на общее число зарегистрированных (или оценочных) рожденных живых детей за тот же период, и умноженное на 100 000. Для измерения требуется информация о статусе беременности, сроках смерти (во время беременности, родов или в течение 42 дней после прекращения беременности) и её причине.</t>
-  </si>
-  <si>
-    <t>Данный показатель отображает риск материнской смертности по отношению к числу детей, рожденных живыми, и, по существу, фиксирует риск смерти в результате одной беременности или одного рожденного живого ребенка. По оценке экспертов, охват системы регистрации актов гражданского состояния считается удовлетворительным, но нуждается в совершенствовании, т.к. основан на использовании бумажных носителей. С декабря 2014г. начала функционировать автоматизированная электронная система АИС "ЗАГС", как один из компонентов информационных систем ГРС. Однако, в органы статистики данные поступают на бумажных носителях и затем вводятся в специальное программное обеспечение сотрудниками статорганов, что иногда приводит к ошибкам, пропускам данных. В ближайшей перспективе (до конца 2020г.) одним из источников статистических данных о населении станет база данных по естественному и миграционному движению населения, создаваемая на основе данных ГРС.</t>
-  </si>
-  <si>
-    <t>Проводится логический и арифметический контроль отчетных данных. Процедура проверки правильности данных в актовых записях осуществляется путем логического контроля, заложенного в программном обеспечении по вводу и разработке данных. Проводится корректировка проставленных кодов причин смерти на соответствие диагнозам, записанным в актовой записи о смерти, согласно МКБ-10, анализ выходных таблиц по причинам смерти.</t>
-  </si>
-  <si>
-    <t>Данные распространяются в статистических публикациях НСК: в ежемесячном докладе «Социально-экономическое положение КР», статистических сборниках: «Демографический ежегодник КР», «Социальные тенденции КР», «Женщины и мужчины КР», «Здоровье населения и здравоохранение в КР», «Молодежь в КР», на официальном сайте НСК КР: http://www.stat.kg/ru/publications/. Имеются динамические ряды с 1990 года.</t>
+    <t>Анализ показателя позволяет оценить уровень эффективности государственной политики в области охраны материнства и детства в республике, поскольку уровень медицинской помощи беременным и родильницам определяет судьбу и здоровье будущих поколений. Показатели материнской смертности в Кыргызстане, несмотря на некоторое снижение, остаются высокими. Смерть женщины в любом периоде беременности, в родах или в течение 42 дней после ее окончания относится к материнской смертности. Поэтому, если умершая была беременна (независимо от продолжительности и локализации беременности) или умерла в родах или в течение 42 дней после родов, в медицинском свидетельстве о смерти обязательно должна быть сделана запись о сроке беременности или числе дней послеродового периода, даже если беременность не была связана с основной причиной смерти.</t>
+  </si>
+  <si>
+    <t>Источником информации о причинах смерти являются записи в медицинских свидетельствах о смерти, составляемых врачом или средним медицинским персоналом относительно заболевания, несчастного случая, убийства, самоубийства и другого внешнего воздействия, послуживших причиной смерти. Из указанных в них заболеваний для статистических целей выбирается одно – основное (начальное), т.е. болезнь или травма, вызвавшая события, прямо приведшие к смерти.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Данные  по случаи материнской смертности, регистрируется в амбулаторной карте пациента либо медицинской карте стационарного больного. Данные выше  из выше названных учетных документов регистрируется в автоматизированной информационной системе МЗ КР АИС "Медсвидетельство". В данной системе формируется электронная форма "Медицинское свидетельство о смерти" которая в электронном формате передается в АИС ЗАГС. В МЗ КР  из АИС "Медсвидетельство" формируются  сведения о всех случаях материнской смертности,  которые используется для принятия решений, а такдже передаются ВОЗ. </t>
+  </si>
+  <si>
+    <t>Коэффициент материнской смертности (КМС) определяется,  как число материнских смертей за исследуемый период времени на 100 000 рожденных живыми за тот же период времени. Коэффициент материнской смертности можно рассчитать путем деления зарегистрированной (или оценочной) материнской смертности на общее число зарегистрированных (или оценочных) рожденных живых детей за тот же период, и умноженных на 100 000. Для измерения требуется информация о статусе беременности, сроках смерти (во время беременности, родов или в течение 42 дней после прекращения беременности) и её причине.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Данный показатель отображает риск материнской смертности по отношению к числу детей, рожденных живыми, и, по существу, фиксирует риск смерти в результате одной беременности или одного рожденного живого ребенка. </t>
+  </si>
+  <si>
+    <t>Проводиться контроль в АИС "Медсвидетельство" на регуллярной основе. Данные сопоставляются с АИС ЗАГС, что будет способствовать полноте регистрации случаев материнской смертности в официальной статистике. Проводится корректировка проставленных кодов причин смерти на соответствие диагнозам, записанные в АИС "Медсвидетельство".</t>
+  </si>
+  <si>
+    <t>Данные распространяются в статистических публикациях ЦЭЗ при МЗ: «Здоровье населения и здравоохранение в КР»,на официальном сайте ЦЭЗ при МЗ КР: http://www.cez.med.kg/</t>
   </si>
   <si>
     <t>Показатель рассчитывается по территории и регионам (Республика, области, г.Бишкек, г.Ош) на ежемесячной основе.</t>
   </si>
   <si>
-    <t>Национальное определение показателя, используемое в статистике, соответствует его международному определению. Кодирование и разработка данных об умерших по причинам смерти производятся органами государственной статистики на основании Международной статистической классификации болезней и причин смерти 10-го пересмотра (МКБ-10) ВОЗ, начиная с отчета за 2000г. По соглашению с НСК база данных по смертности передается Центру электронного здравоохранения при Министерстве здравоохранения КР: форма 2 «Сведения о числе родившихся, браков, разводов и умерших по причинам смерти» – ежемесячно, с отставанием на 1,5 мес. от отчетного месяца и форма С52 «Смертность населения по причинам смерти» – ежегодно, в июне месяце года, следующего за отчетным.</t>
-  </si>
-  <si>
-    <t>Ссылки на НПА и методологию: 
-http://www.stat.kg/ru/about/pravovye-osnovy-organov-gosudarstvennoj-statistiki/; https://unstats.un.org/sdgs/Metadata; http://www.stat.kg/ru/statistics/download/methodology/68/. Статистические публикации НСК: ежемесячный доклад «Социально-экономическое положение КР», статистические сборники «Демографический ежегодник КР», «Социальные тенденции КР», «Женщины и мужчины КР», "Уровень жизни населения КР», «Здоровье населения и здравоохранение в КР» на официальном сайте НСК КР: http://www.stat.kg/ru/publications/
-Национальная платформа отчётности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io</t>
-  </si>
-  <si>
-    <t>www.stat.gov.kg</t>
-  </si>
-  <si>
-    <t>0 (312) 32 55 46</t>
+    <t xml:space="preserve">Национальное определение показателя, используемое в статистике, соответствует его международному определению. Кодирование и разработка данных об умерших по причинам смерти производятся специалистами организации здравоохранения на основании Международной статистической классификации болезней и причин смерти 10-го пересмотра (МКБ-10) ВОЗ. </t>
+  </si>
+  <si>
+    <t>Ссылки на НПА и методологию:                                                       https://mkb-10.com/                                                                           приказ МЗ КР №362 от 24.03.2022 "Об утверждении форм первичного медицинского учета случаев рождения и смерти"; «Здоровье населения и здравоохранение в КР» на официальном сайте ЦЭЗ при МЗ КР: http://www.cez.med.kg/</t>
   </si>
 </sst>
 </file>
@@ -251,7 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -273,6 +270,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -587,13 +588,13 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="99.140625" style="3" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -607,11 +608,11 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -623,7 +624,7 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -637,7 +638,7 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -645,7 +646,7 @@
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -653,7 +654,7 @@
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -661,8 +662,8 @@
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>45</v>
+      <c r="B9" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -670,7 +671,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -679,28 +680,28 @@
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="183" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -709,20 +710,20 @@
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -731,28 +732,28 @@
       </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -761,12 +762,12 @@
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -774,23 +775,23 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
